--- a/BOM/White Knight Documentation.xlsx
+++ b/BOM/White Knight Documentation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\Da Vinci 3D printer\renders\Belt printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4ADC92-7C28-4206-B383-772D863B0B07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5BE870-2B0B-41CD-A40B-FA495B9F1E36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
+    <workbookView xWindow="1446" yWindow="1362" windowWidth="10488" windowHeight="8994" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
   </bookViews>
   <sheets>
     <sheet name="34pin connector" sheetId="1" r:id="rId1"/>
     <sheet name="BOM" sheetId="2" r:id="rId2"/>
-    <sheet name="Bulk Hardware" sheetId="3" r:id="rId3"/>
+    <sheet name="Extrusions" sheetId="4" r:id="rId3"/>
+    <sheet name="Bulk Hardware" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
   <si>
     <t>Color</t>
   </si>
@@ -239,9 +240,6 @@
     <t>Rubber feet</t>
   </si>
   <si>
-    <t>1/2" 20.5" Stainless steel rod</t>
-  </si>
-  <si>
     <t>Noctua 40mm fans Qty 3</t>
   </si>
   <si>
@@ -477,6 +475,45 @@
   </si>
   <si>
     <t>Stainless Steel Round Bar 1/2" x 20.5"</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>4080 C-Channel</t>
+  </si>
+  <si>
+    <t>914mm</t>
+  </si>
+  <si>
+    <t>2040 V-slot</t>
+  </si>
+  <si>
+    <t>520mm</t>
+  </si>
+  <si>
+    <t>700mm</t>
+  </si>
+  <si>
+    <t>460mm</t>
+  </si>
+  <si>
+    <t>453mm</t>
+  </si>
+  <si>
+    <t>2020 V-slot</t>
+  </si>
+  <si>
+    <t>315mm</t>
+  </si>
+  <si>
+    <t>1/2" x 19" aluminum sqaure bar</t>
   </si>
 </sst>
 </file>
@@ -936,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C05BAE-1283-4F62-A89B-70F4991C7357}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1296,11 +1333,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B3:B4"/>
@@ -1309,6 +1341,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1319,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E665A9A7-D1EB-4ADF-AEF8-07F3A1E51DC0}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1335,11 +1372,11 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="14">
         <f>SUM(B4:B203)</f>
-        <v>2255.8200000000002</v>
+        <v>1847.24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1542,43 +1579,43 @@
         <v>57</v>
       </c>
       <c r="B20" s="14">
-        <v>21.21</v>
+        <v>24.68</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="14">
         <v>50.64</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="14">
         <v>34.32</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="14">
         <v>19.28</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1589,7 +1626,7 @@
         <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1649,18 +1686,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="B30" s="14">
-        <v>420</v>
+        <v>7.95</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="14">
         <v>45</v>
@@ -1671,71 +1708,71 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="14">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="14">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="14">
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="14">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="14">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="14">
         <v>202.73</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1745,6 +1782,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9453373D-B946-4FB1-A78C-99B0BC673040}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE808631-DED2-48D0-A77B-120E1872D02B}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -1761,301 +1898,301 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>118</v>
       </c>
       <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
         <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2063,63 +2200,63 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2127,7 +2264,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2135,30 +2272,30 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/White Knight Documentation.xlsx
+++ b/BOM/White Knight Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\Da Vinci 3D printer\renders\Belt printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5BE870-2B0B-41CD-A40B-FA495B9F1E36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34F661-7DF6-4B7D-A018-321CF3D27DFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1446" yWindow="1362" windowWidth="10488" windowHeight="8994" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
+    <workbookView xWindow="834" yWindow="108" windowWidth="14754" windowHeight="11676" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
   </bookViews>
   <sheets>
     <sheet name="34pin connector" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>Color</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>1/2" x 19" aluminum sqaure bar</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1333,6 +1336,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B3:B4"/>
@@ -1341,11 +1349,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1356,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E665A9A7-D1EB-4ADF-AEF8-07F3A1E51DC0}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="G1" s="14">
         <f>SUM(B4:B203)</f>
-        <v>1847.24</v>
+        <v>1697.24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1633,8 +1636,8 @@
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="14">
-        <v>150</v>
+      <c r="B25" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>

--- a/BOM/White Knight Documentation.xlsx
+++ b/BOM/White Knight Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\Da Vinci 3D printer\renders\Belt printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34F661-7DF6-4B7D-A018-321CF3D27DFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F66FCDA-E51D-48AF-8788-9E64AC7B1C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="834" yWindow="108" windowWidth="14754" windowHeight="11676" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
+    <workbookView xWindow="2304" yWindow="1152" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
   </bookViews>
   <sheets>
     <sheet name="34pin connector" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
   <si>
     <t>Color</t>
   </si>
@@ -516,7 +516,61 @@
     <t>1/2" x 19" aluminum sqaure bar</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Digikey.com</t>
+  </si>
+  <si>
+    <t>34 Pin Male IDC connector</t>
+  </si>
+  <si>
+    <t>TME.com</t>
+  </si>
+  <si>
+    <t>AWHP-34P</t>
+  </si>
+  <si>
+    <t>34 Pin Female IDC Connector</t>
+  </si>
+  <si>
+    <t>3M157228-ND</t>
+  </si>
+  <si>
+    <t>4 position Molex Plug</t>
+  </si>
+  <si>
+    <t>WM1018-ND</t>
+  </si>
+  <si>
+    <t>4 position Molex receptical</t>
+  </si>
+  <si>
+    <t>WM3701-ND</t>
+  </si>
+  <si>
+    <t>Molex Male pin</t>
+  </si>
+  <si>
+    <t>WM2500-ND</t>
+  </si>
+  <si>
+    <t>Molex female pin</t>
+  </si>
+  <si>
+    <t>WM2501-ND</t>
+  </si>
+  <si>
+    <t>20AWG 2 conductor blk/red</t>
+  </si>
+  <si>
+    <t>CN180BR-25-ND</t>
+  </si>
+  <si>
+    <t>26AWG 34 cond multi color ribbon</t>
+  </si>
+  <si>
+    <t>3M157870-25-ND</t>
+  </si>
+  <si>
+    <t>thebigbearingstore.com</t>
   </si>
 </sst>
 </file>
@@ -526,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +596,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,8 +689,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -631,11 +710,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -651,10 +745,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,20 +1093,20 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,332 +1117,332 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="22"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="22"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="22"/>
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="22"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="22"/>
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="22"/>
       <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="22"/>
       <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="22"/>
       <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="21"/>
       <c r="C32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="21"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="21"/>
       <c r="C35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="21"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -1357,20 +1470,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E665A9A7-D1EB-4ADF-AEF8-07F3A1E51DC0}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="14"/>
-    <col min="3" max="3" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1378,11 +1492,11 @@
         <v>76</v>
       </c>
       <c r="G1" s="14">
-        <f>SUM(B4:B203)</f>
-        <v>1697.24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f>SUM(B4:B202)</f>
+        <v>2036.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1393,7 +1507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1404,7 +1518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1426,7 +1540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1437,7 +1551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1448,7 +1562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1459,7 +1573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1470,7 +1584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1481,7 +1595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +1606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1503,7 +1617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1514,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1536,7 +1650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1547,7 +1661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1558,15 +1672,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1577,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1588,7 +1705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -1599,7 +1716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1610,7 +1727,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1621,7 +1738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1632,18 +1749,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>160</v>
+      <c r="B25" s="14">
+        <v>290</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1654,7 +1771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1665,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1676,7 +1793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1687,7 +1804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -1698,7 +1815,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1709,7 +1826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1720,7 +1837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1731,7 +1848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1742,7 +1859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1753,7 +1870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1764,7 +1881,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -1776,6 +1893,118 @@
       </c>
       <c r="D37" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1.32</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1.38</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1.68</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="19">
+        <v>19.54</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="20">
+        <v>50.25</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1792,17 +2021,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -1813,7 +2042,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -1824,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1835,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1846,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -1857,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1868,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -1892,14 +2121,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +2142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +2156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1941,7 +2170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1955,7 +2184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +2198,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1983,7 +2212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1997,7 +2226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -2011,7 +2240,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2025,7 +2254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2039,7 +2268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2053,7 +2282,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2067,7 +2296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2081,7 +2310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2095,7 +2324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -2109,7 +2338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -2123,7 +2352,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -2137,7 +2366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -2151,7 +2380,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2165,7 +2394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2408,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -2193,7 +2422,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2201,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2215,7 +2444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -2229,7 +2458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -2243,7 +2472,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2257,7 +2486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2265,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2273,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -2287,7 +2516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>

--- a/BOM/White Knight Documentation.xlsx
+++ b/BOM/White Knight Documentation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\Da Vinci 3D printer\renders\Belt printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F66FCDA-E51D-48AF-8788-9E64AC7B1C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F418A91-52B0-4995-97D0-37EFEC0BCCB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1152" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
+    <workbookView xWindow="5412" yWindow="1272" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
   </bookViews>
   <sheets>
     <sheet name="34pin connector" sheetId="1" r:id="rId1"/>
     <sheet name="BOM" sheetId="2" r:id="rId2"/>
-    <sheet name="Extrusions" sheetId="4" r:id="rId3"/>
-    <sheet name="Bulk Hardware" sheetId="3" r:id="rId4"/>
+    <sheet name="Infill percentges" sheetId="5" r:id="rId3"/>
+    <sheet name="Extrusions" sheetId="4" r:id="rId4"/>
+    <sheet name="Bulk Hardware" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="233">
   <si>
     <t>Color</t>
   </si>
@@ -571,6 +572,168 @@
   </si>
   <si>
     <t>thebigbearingstore.com</t>
+  </si>
+  <si>
+    <t>1-All_Belt_Clamps V2.stl</t>
+  </si>
+  <si>
+    <t>1-Belt stepper mount Pt1 V4.stl</t>
+  </si>
+  <si>
+    <t>1-Belt_stepper_mount_Pt2_V3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA bottom Cover V3 - part 1of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA bottom Cover V3 - part 2of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA bottom Cover V3 - part 3of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA bottom Cover V3 Full.stl</t>
+  </si>
+  <si>
+    <t>1-CBA top Cover V5 part 1of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA top Cover V5 part 2of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA top Cover V5 part 3of3.stl</t>
+  </si>
+  <si>
+    <t>1-CBA top Cover V5.stl</t>
+  </si>
+  <si>
+    <t>1-CBA_slide_tray_assembly_v11.stl</t>
+  </si>
+  <si>
+    <t>1-Cooling fan Ducts v4.stl</t>
+  </si>
+  <si>
+    <t>1-Display_Support_Endcaps.stl</t>
+  </si>
+  <si>
+    <t>1-Mosquito &amp; E3Dv6 Mount V7.stl</t>
+  </si>
+  <si>
+    <t>1-Mosquito &amp; E3Dv6 clamp and cooling fan mount V4.stl</t>
+  </si>
+  <si>
+    <t>1-PanelDue7i_mount.stl</t>
+  </si>
+  <si>
+    <t>1-PanelDue_7i_Version_2_Back.stl</t>
+  </si>
+  <si>
+    <t>1-PanelDue_7i_Version_2_Front WK.stl</t>
+  </si>
+  <si>
+    <t>1-Peeler.stl</t>
+  </si>
+  <si>
+    <t>1-Rear_Idler_Right_V5.stl</t>
+  </si>
+  <si>
+    <t>1-Rear_Idler_left_V4.stl</t>
+  </si>
+  <si>
+    <t>1-Side_Support_Top_Brace_Left_V2.stl</t>
+  </si>
+  <si>
+    <t>1-Side_Support_Top_Brace_Right_V2.stl</t>
+  </si>
+  <si>
+    <t>1-Stepper_Mount_Left_V9.stl</t>
+  </si>
+  <si>
+    <t>1-Stepper_Mount_Right_V9.stl</t>
+  </si>
+  <si>
+    <t>1-Xaxis_Mount_Left_V11.stl</t>
+  </si>
+  <si>
+    <t>1-Xaxis_Mount_Right_V10.stl</t>
+  </si>
+  <si>
+    <t>1-hotend wire cover V3.stl</t>
+  </si>
+  <si>
+    <t>1-hotend_carriage_v6.stl</t>
+  </si>
+  <si>
+    <t>1-plug mount.stl</t>
+  </si>
+  <si>
+    <t>1-slide tray end cover v4.stl</t>
+  </si>
+  <si>
+    <t>1-tensioner mount bracket.stl</t>
+  </si>
+  <si>
+    <t>10-Bowden_Cable_Clip_V1.stl</t>
+  </si>
+  <si>
+    <t>2-4080 c-beam endcap V5.stl</t>
+  </si>
+  <si>
+    <t>2-4080 c-beam endcap wider v1.stl</t>
+  </si>
+  <si>
+    <t>2-Roller_Insert.stl</t>
+  </si>
+  <si>
+    <t>2-Side_Support_Bottom_Brace.stl</t>
+  </si>
+  <si>
+    <t>3-Pulley_Bearing_Mount_V2.stl</t>
+  </si>
+  <si>
+    <t>4-Roller_End_Cap.stl</t>
+  </si>
+  <si>
+    <t>switch enclosure V4.stl</t>
+  </si>
+  <si>
+    <t>Infill</t>
+  </si>
+  <si>
+    <t>Nozzle</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Perimeters</t>
+  </si>
+  <si>
+    <t>Layer Height</t>
+  </si>
+  <si>
+    <t>Drip Tray V2.stl</t>
+  </si>
+  <si>
+    <t>Drip Tray handle.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8-in Push Connect x 1/4-in MIP Male Fitting </t>
+  </si>
+  <si>
+    <t>Lowes.com #835028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8-in Push Connect x 1/4-in MIP dia 90-Degree </t>
+  </si>
+  <si>
+    <t>lowes.com #835045</t>
+  </si>
+  <si>
+    <t>3/8-in x 25-ft Polyethylene Tubing</t>
+  </si>
+  <si>
+    <t>lowes.com #814305</t>
   </si>
 </sst>
 </file>
@@ -580,7 +743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +771,27 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -702,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -725,11 +909,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -763,13 +981,44 @@
     <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,6 +1037,2573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1717DF3-56A4-474B-9B70-1A3DCFE540F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619CC64B-76EE-4A17-9B5D-E40B1BFDDA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1386840"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BE15EE-3EC7-47B7-88E9-F3089AEE1A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2125980"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B7E3BC-AE9A-4A79-AA64-5FD0A9822047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF65138-3329-49EC-BAE4-4CB0996F1FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3970020"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E406A375-0312-46A0-AE21-BBF89F3C87C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4892040"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA0DC35-5120-416A-8987-53113FE016B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5814060"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E75DFD0-F868-4C3A-8927-236BC2E14CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6553200"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8D7F37-76EE-4A14-A62E-B8EAE8DD150C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7475220"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AF6282-2244-4227-A542-704D07D7328E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8397240"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8805EA12-378E-41A0-8E01-193D28DB9223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9319260"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA21C112-9D9B-4278-A927-26348A506805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F8DCE1-A460-4664-AEAC-3B315C76F5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10980420"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3AA10F-7D64-4E4D-B87D-43E0008A8886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11628120"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6180AA88-B9E3-4934-9BE3-7CEA4CCDB5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12550140"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A00C7A5-0EF6-44AC-9D8D-B0C3140CC3D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13472160"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF15F84-04F6-4459-B80E-3373582F7F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15125700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E43031-B9CE-49C3-8583-4923768CE41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15864840"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AB21FC-4A3B-40CB-9E82-AA49C4A5D5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16786860"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2AC0CF-6251-43BD-AFF8-445B160BB8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17708880"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D2CD57-57EE-4002-A1D6-45BF40431DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18356580"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AE1F3E-40E2-4261-89C2-38D4CE473F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19095720"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04D511C-BC44-4913-B7B8-074CFE341423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19834860"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5B707F-5F85-4579-90B8-3F4D245C0D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20756880"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AC6B84-8B1E-4A54-8946-662696530DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21861780"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7F184-AD2E-4165-909E-AD7E1E24E85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22600920"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B547F3-F815-4F88-92EC-D784D38219F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23522940"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C984C6BD-AEC4-4AA5-8A3A-B5FD5E621762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24262080"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5F8EC5-CA60-4666-9A4C-8364DE479F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25001220"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411B777-BDE5-441C-A1BD-D83026680635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25740360"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECC0D0A-31AA-454E-8644-D4F4B748BF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26479500"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E082D5C5-62AE-4EB6-96C1-9E54456BBC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27127200"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23FE65E-B82D-461D-8384-20F3C4FD7AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27866340"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694857CA-F03C-4D5E-A704-7E7274A456D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28788360"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED044FEF-3A19-479B-8804-9E5564312185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29527500"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76D8CA3-7FCF-4DF8-A94B-310D3BAAEC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30266640"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CFA242-8C6D-4B58-9F76-A4C4F50EB760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31188660"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0397B208-A952-4890-AB11-6881DD90FD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31836360"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B0E4E7-2CDD-41AB-9E77-A838ADABF70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32758380"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2355AD-A89D-4A06-9176-87F4861977F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33680400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6928156A-91A8-466A-A8B0-18206E77CF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34328100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="https://github.githubassets.com/images/spinners/octocat-spinner-32.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD55873A-C06D-4C40-BD49-FFE7B09620EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34975800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,11 +3916,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1121,7 +3937,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -1132,7 +3948,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="32"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +3957,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1152,7 +3968,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="32"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +3977,7 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
@@ -1172,7 +3988,7 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="32"/>
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +3997,7 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -1192,7 +4008,7 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="32"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +4017,7 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1212,7 +4028,7 @@
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="32"/>
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -1221,7 +4037,7 @@
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="32"/>
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +4046,7 @@
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="32"/>
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +4055,7 @@
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
@@ -1250,7 +4066,7 @@
       <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="32"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +4075,7 @@
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="32"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +4084,7 @@
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="32"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +4093,7 @@
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1288,7 +4104,7 @@
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="32"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +4113,7 @@
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="32"/>
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +4122,7 @@
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="32"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +4131,7 @@
       <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1326,7 +4142,7 @@
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="32"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +4151,7 @@
       <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
@@ -1346,7 +4162,7 @@
       <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="32"/>
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -1355,7 +4171,7 @@
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
@@ -1366,7 +4182,7 @@
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="32"/>
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +4191,7 @@
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="32"/>
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -1384,7 +4200,7 @@
       <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="32"/>
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +4209,7 @@
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
@@ -1404,7 +4220,7 @@
       <c r="A32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="31"/>
       <c r="C32" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +4229,7 @@
       <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
@@ -1424,7 +4240,7 @@
       <c r="A34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="31"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +4249,7 @@
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="31"/>
       <c r="C35" t="s">
         <v>28</v>
       </c>
@@ -1442,7 +4258,7 @@
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="31"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -1470,15 +4286,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E665A9A7-D1EB-4ADF-AEF8-07F3A1E51DC0}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="14"/>
     <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
@@ -1493,7 +4309,7 @@
       </c>
       <c r="G1" s="14">
         <f>SUM(B4:B202)</f>
-        <v>2036.78</v>
+        <v>2050.92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,7 +4495,7 @@
       <c r="B18" s="14">
         <v>11</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2007,13 +4823,819 @@
         <v>177</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="14">
+        <v>3.78</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="14">
+        <v>4.18</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="14">
+        <v>6.18</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3A548-4565-48A7-AA26-69EEACD4466E}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="28">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="28">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="28">
+        <v>2</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="28">
+        <v>4</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="28">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="28">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="28">
+        <v>4</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="28">
+        <v>4</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="28">
+        <v>4</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="28">
+        <v>2</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="28">
+        <v>4</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="28">
+        <v>4</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="28">
+        <v>4</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="28">
+        <v>4</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="28">
+        <v>4</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="28">
+        <v>4</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D29" s="28">
+        <v>4</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="28">
+        <v>4</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="28">
+        <v>4</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D32" s="28">
+        <v>4</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="28">
+        <v>4</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D34" s="28">
+        <v>4</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="28">
+        <v>4</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="28">
+        <v>4</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="28">
+        <v>4</v>
+      </c>
+      <c r="E37" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="C38" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="28">
+        <v>4</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="28">
+        <v>4</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D40" s="28">
+        <v>4</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="28">
+        <v>4</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="28">
+        <v>4</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="28">
+        <v>4</v>
+      </c>
+      <c r="E43" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="28">
+        <v>4</v>
+      </c>
+      <c r="E44" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9453373D-B946-4FB1-A78C-99B0BC673040}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2113,7 +5735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE808631-DED2-48D0-A77B-120E1872D02B}">
   <dimension ref="A1:D30"/>
   <sheetViews>

--- a/BOM/White Knight Documentation.xlsx
+++ b/BOM/White Knight Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\Da Vinci 3D printer\renders\Belt printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F418A91-52B0-4995-97D0-37EFEC0BCCB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548E446-A407-4A66-A78E-71B9207AFCA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5412" yWindow="1272" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{1A9839D0-F1F9-40EB-A8FA-A873B328377D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="236">
   <si>
     <t>Color</t>
   </si>
@@ -734,6 +734,15 @@
   </si>
   <si>
     <t>lowes.com #814305</t>
+  </si>
+  <si>
+    <t>2GT Timing Pulley 20 Tooth 5mm bore</t>
+  </si>
+  <si>
+    <t>2GT Timing Pulley 20 Tooth 8mm bore</t>
+  </si>
+  <si>
+    <t>jameco.com #2219823</t>
   </si>
 </sst>
 </file>
@@ -947,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1006,9 +1015,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1016,6 +1022,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3916,11 +3926,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3937,7 +3947,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -3948,7 +3958,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="36"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -3957,7 +3967,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -3968,7 +3978,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="36"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -3977,7 +3987,7 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
@@ -3988,7 +3998,7 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="36"/>
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -3997,7 +4007,7 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -4008,7 +4018,7 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="36"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -4017,7 +4027,7 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -4028,7 +4038,7 @@
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="36"/>
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -4037,7 +4047,7 @@
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="36"/>
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -4046,7 +4056,7 @@
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="36"/>
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4065,7 @@
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
@@ -4066,7 +4076,7 @@
       <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="36"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -4075,7 +4085,7 @@
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -4084,7 +4094,7 @@
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="36"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -4093,7 +4103,7 @@
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -4104,7 +4114,7 @@
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -4113,7 +4123,7 @@
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -4122,7 +4132,7 @@
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="36"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -4131,7 +4141,7 @@
       <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -4142,7 +4152,7 @@
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="36"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -4151,7 +4161,7 @@
       <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
@@ -4162,7 +4172,7 @@
       <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="36"/>
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -4171,7 +4181,7 @@
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
@@ -4182,7 +4192,7 @@
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="36"/>
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -4191,7 +4201,7 @@
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="36"/>
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -4200,7 +4210,7 @@
       <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="36"/>
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -4209,7 +4219,7 @@
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
@@ -4220,7 +4230,7 @@
       <c r="A32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="35"/>
       <c r="C32" t="s">
         <v>24</v>
       </c>
@@ -4229,7 +4239,7 @@
       <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
@@ -4240,7 +4250,7 @@
       <c r="A34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -4249,7 +4259,7 @@
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="35"/>
       <c r="C35" t="s">
         <v>28</v>
       </c>
@@ -4258,18 +4268,13 @@
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="35"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B3:B4"/>
@@ -4278,6 +4283,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4286,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E665A9A7-D1EB-4ADF-AEF8-07F3A1E51DC0}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4308,8 +4318,8 @@
         <v>76</v>
       </c>
       <c r="G1" s="14">
-        <f>SUM(B4:B202)</f>
-        <v>2050.92</v>
+        <f>SUM(B4:B204)</f>
+        <v>2042.92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4477,67 +4487,67 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
+    <row r="17" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>55</v>
+    <row r="18" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="B18" s="14">
-        <v>11</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>178</v>
+        <v>2</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="14">
-        <v>24.68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B21" s="14">
-        <v>50.64</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="B22" s="14">
-        <v>34.32</v>
+        <v>24.68</v>
       </c>
       <c r="C22" t="s">
         <v>142</v>
@@ -4545,10 +4555,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="14">
-        <v>19.28</v>
+        <v>50.64</v>
       </c>
       <c r="C23" t="s">
         <v>142</v>
@@ -4556,303 +4566,325 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B24" s="14">
-        <v>210</v>
+        <v>34.32</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B25" s="14">
-        <v>290</v>
+        <v>19.28</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="14">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B27" s="14">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="14">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="B30" s="14">
-        <v>7.95</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="14">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B32" s="14">
-        <v>12</v>
+        <v>7.95</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B33" s="14">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" s="14">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="14">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="14">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B38" s="14">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B39" s="14">
         <v>202.73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>138</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B40" s="19">
         <v>1.32</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1.38</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B41" s="20">
-        <v>0.31</v>
+        <v>1.38</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B42" s="19">
-        <v>1.68</v>
+        <v>0.36</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B43" s="20">
-        <v>1.7</v>
+        <v>0.31</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>160</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B44" s="19">
-        <v>19.54</v>
+        <v>1.68</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B45" s="20">
-        <v>50.25</v>
+        <v>1.7</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>160</v>
       </c>
       <c r="D45" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="19">
+        <v>19.54</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="20">
+        <v>50.25</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B48" s="14">
         <v>3.78</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C48" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B49" s="14">
         <v>4.18</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B50" s="14">
         <v>6.18</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>232</v>
       </c>
     </row>
